--- a/var/tmp/django_cache/report_dea_2.xlsx
+++ b/var/tmp/django_cache/report_dea_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,27 +472,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REDE3.SA</t>
+          <t>CMIG3.SA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.173</v>
+        <v>1.874</v>
       </c>
       <c r="D2" t="n">
-        <v>4.398</v>
+        <v>1.021</v>
       </c>
       <c r="E2" t="n">
-        <v>5.984</v>
+        <v>2.171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.057</v>
+        <v>0.023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>0.309</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -500,27 +500,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRPL3.SA</t>
+          <t>REDE3.SA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.703</v>
+        <v>3.133</v>
       </c>
       <c r="D3" t="n">
-        <v>2.605</v>
+        <v>1.252</v>
       </c>
       <c r="E3" t="n">
-        <v>3.443</v>
+        <v>1.984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -528,27 +528,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRPL4.SA</t>
+          <t>TAEE11.SA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.159</v>
+        <v>1.69</v>
       </c>
       <c r="D4" t="n">
-        <v>1.809</v>
+        <v>1.289</v>
       </c>
       <c r="E4" t="n">
-        <v>4.168</v>
+        <v>1.831</v>
       </c>
       <c r="F4" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28</v>
+        <v>0.504</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -556,58 +556,86 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CMIG3.SA</t>
+          <t>TAEE3.SA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.166</v>
+        <v>1.269</v>
       </c>
       <c r="D5" t="n">
-        <v>1.838</v>
+        <v>1.094</v>
       </c>
       <c r="E5" t="n">
-        <v>1.105</v>
+        <v>1.784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.252</v>
+        <v>0.044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TAEE4.SA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>CMIG4.SA</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.522</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.705</v>
+      <c r="C7" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
